--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3557229.310149441</v>
+        <v>3554731.57822575</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554859</v>
+        <v>10955577.07554858</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7935486.004933787</v>
+        <v>7935486.004933788</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>4.62541174991591</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.92889148616885</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.1636514716173</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386865</v>
+        <v>118.9581905386872</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241016327</v>
+        <v>0.7530123241028832</v>
       </c>
       <c r="S2" t="n">
-        <v>122.250174080763</v>
+        <v>154.9260532011785</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261756</v>
+        <v>99.96876284261766</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323643</v>
+        <v>45.66663787323679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199383</v>
+        <v>21.29900499199448</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156105</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0452553973762</v>
+        <v>195.0452553973763</v>
       </c>
       <c r="U3" t="n">
         <v>225.8578215810165</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>17.56714738418828</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9421056774417812</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.428264884221</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.4595917937734</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>33.70999065834312</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9288914861689</v>
+        <v>12.92889148616887</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.1636514716173</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241016327</v>
+        <v>0.7530123241028832</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.9260532011785</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>294.9177786878665</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261756</v>
+        <v>99.96876284261766</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323643</v>
+        <v>45.66663787323679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199383</v>
+        <v>21.29900499199448</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156105</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0452553973762</v>
+        <v>195.0452553973763</v>
       </c>
       <c r="U6" t="n">
         <v>225.8578215810165</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.4149600371269</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>98.42300580945579</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>197.5339758908264</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>215.9968874658068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>115.7624233403566</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>125.418938209067</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>29.24923305751666</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>78.9105100867805</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356922</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3509,13 +3509,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722635</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>161.3373146097486</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3791,7 +3791,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766861</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>561.8453800566806</v>
+        <v>1284.232906795689</v>
       </c>
       <c r="C2" t="n">
-        <v>192.8828631162688</v>
+        <v>915.2703898552771</v>
       </c>
       <c r="D2" t="n">
-        <v>192.8828631162688</v>
+        <v>915.2703898552771</v>
       </c>
       <c r="E2" t="n">
-        <v>192.8828631162688</v>
+        <v>915.2703898552771</v>
       </c>
       <c r="F2" t="n">
-        <v>185.9373623670654</v>
+        <v>908.3248891060737</v>
       </c>
       <c r="G2" t="n">
-        <v>172.8778760173998</v>
+        <v>491.224998716004</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760173998</v>
+        <v>172.8778760174006</v>
       </c>
       <c r="I2" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002509</v>
+        <v>72.94508437002345</v>
       </c>
       <c r="K2" t="n">
-        <v>474.9025859199855</v>
+        <v>474.9025859199814</v>
       </c>
       <c r="L2" t="n">
-        <v>693.1884131896754</v>
+        <v>1025.84303764856</v>
       </c>
       <c r="M2" t="n">
-        <v>1322.822366070954</v>
+        <v>1210.45859237193</v>
       </c>
       <c r="N2" t="n">
-        <v>1948.012457026069</v>
+        <v>1629.431735936311</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.174093780566</v>
+        <v>2174.593372690805</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992996</v>
+        <v>2602.201833993</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2511.658736891013</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2296.805869646234</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U2" t="n">
-        <v>2043.113197701265</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="V2" t="n">
-        <v>1712.050310357694</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="W2" t="n">
-        <v>1712.050310357694</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="X2" t="n">
-        <v>1338.584552096614</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="Y2" t="n">
-        <v>948.4452201208023</v>
+        <v>1288.905039876412</v>
       </c>
     </row>
     <row r="3">
@@ -4383,61 +4383,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120973</v>
+        <v>966.4318812120978</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309703</v>
+        <v>791.9788519309708</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697192</v>
+        <v>643.0444422697196</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642636</v>
+        <v>483.8069872642641</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911487</v>
+        <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640337</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815735</v>
+        <v>98.84600463815741</v>
       </c>
       <c r="I3" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J3" t="n">
-        <v>52.7180875944842</v>
+        <v>170.7774263352073</v>
       </c>
       <c r="K3" t="n">
-        <v>381.1211448320014</v>
+        <v>499.1804835727229</v>
       </c>
       <c r="L3" t="n">
-        <v>884.1039790291131</v>
+        <v>667.2528399353421</v>
       </c>
       <c r="M3" t="n">
-        <v>1523.040444009832</v>
+        <v>1306.189304916059</v>
       </c>
       <c r="N3" t="n">
-        <v>1720.045718791142</v>
+        <v>1958.575638897801</v>
       </c>
       <c r="O3" t="n">
-        <v>2267.970957996817</v>
+        <v>2506.500878103473</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877465</v>
+        <v>2613.977979877468</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.39023326765</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S3" t="n">
         <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880795</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U3" t="n">
         <v>2039.648482162597</v>
@@ -4446,13 +4446,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202652</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.407516997119</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232165</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>645.3106404480925</v>
+        <v>70.46268091184612</v>
       </c>
       <c r="C4" t="n">
-        <v>476.3744575201856</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="D4" t="n">
-        <v>326.2578181078499</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="E4" t="n">
-        <v>178.3447245254567</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="F4" t="n">
-        <v>178.3447245254567</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G4" t="n">
-        <v>178.3447245254567</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H4" t="n">
-        <v>177.3931026290509</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919737</v>
+        <v>153.1475318919727</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482335</v>
+        <v>337.1890785482312</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628167</v>
+        <v>541.624208062813</v>
       </c>
       <c r="N4" t="n">
-        <v>746.632943554378</v>
+        <v>746.632943554373</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917113</v>
+        <v>919.975396891705</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327088</v>
+        <v>1044.779129327081</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.751684421862</v>
+        <v>840.2167432160227</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.751684421862</v>
+        <v>614.5643391546936</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.751684421862</v>
+        <v>614.5643391546936</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.751684421862</v>
+        <v>359.8798509488067</v>
       </c>
       <c r="W4" t="n">
-        <v>1047.751684421862</v>
+        <v>70.46268091184612</v>
       </c>
       <c r="X4" t="n">
-        <v>1047.751684421862</v>
+        <v>70.46268091184612</v>
       </c>
       <c r="Y4" t="n">
-        <v>826.9591052783322</v>
+        <v>70.46268091184612</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1642.082593935811</v>
+        <v>776.8584499902008</v>
       </c>
       <c r="C5" t="n">
-        <v>1273.1200769954</v>
+        <v>776.8584499902008</v>
       </c>
       <c r="D5" t="n">
-        <v>914.8543783886494</v>
+        <v>776.8584499902008</v>
       </c>
       <c r="E5" t="n">
-        <v>880.8038827741614</v>
+        <v>391.0701973919566</v>
       </c>
       <c r="F5" t="n">
-        <v>469.8179779845538</v>
+        <v>384.1246966427531</v>
       </c>
       <c r="G5" t="n">
-        <v>52.7180875944842</v>
+        <v>371.0652102930876</v>
       </c>
       <c r="H5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002509</v>
+        <v>240.3507333903765</v>
       </c>
       <c r="K5" t="n">
-        <v>474.9025859199855</v>
+        <v>321.4042764948814</v>
       </c>
       <c r="L5" t="n">
-        <v>1025.843037648567</v>
+        <v>872.3447282234596</v>
       </c>
       <c r="M5" t="n">
-        <v>1655.476990529845</v>
+        <v>1056.96028294683</v>
       </c>
       <c r="N5" t="n">
-        <v>2280.66708148496</v>
+        <v>1419.239895183006</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.174093780566</v>
+        <v>1964.401531937499</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992996</v>
+        <v>2392.009993239694</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R5" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.143761215016</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.143761215016</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.451089270047</v>
+        <v>2224.960126440574</v>
       </c>
       <c r="V5" t="n">
-        <v>2381.451089270047</v>
+        <v>2224.960126440574</v>
       </c>
       <c r="W5" t="n">
-        <v>2028.682433999933</v>
+        <v>1927.063380291214</v>
       </c>
       <c r="X5" t="n">
-        <v>2028.682433999933</v>
+        <v>1553.597622030134</v>
       </c>
       <c r="Y5" t="n">
-        <v>2028.682433999933</v>
+        <v>1163.458290054323</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120981</v>
+        <v>966.4318812120982</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309711</v>
+        <v>791.9788519309712</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697199</v>
+        <v>643.0444422697201</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642643</v>
+        <v>483.8069872642645</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911493</v>
+        <v>337.2724292911496</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640337</v>
+        <v>199.8245529640341</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815735</v>
+        <v>98.84600463815775</v>
       </c>
       <c r="I6" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J6" t="n">
-        <v>52.7180875944842</v>
+        <v>170.7774263352073</v>
       </c>
       <c r="K6" t="n">
-        <v>119.3005601895487</v>
+        <v>499.1804835727229</v>
       </c>
       <c r="L6" t="n">
-        <v>622.2833943866603</v>
+        <v>1002.163317769832</v>
       </c>
       <c r="M6" t="n">
-        <v>1261.219859367379</v>
+        <v>1238.315708304465</v>
       </c>
       <c r="N6" t="n">
-        <v>1643.297497944256</v>
+        <v>1435.320983085772</v>
       </c>
       <c r="O6" t="n">
-        <v>2191.222737149931</v>
+        <v>1983.246222291445</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877466</v>
+        <v>2406.001465018977</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4680,7 +4680,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.5739510150303</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="C7" t="n">
-        <v>497.6377680871234</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="D7" t="n">
-        <v>347.5211286747876</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="E7" t="n">
-        <v>199.6080350923945</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="F7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919737</v>
+        <v>153.1475318919727</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482335</v>
+        <v>337.1890785482312</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628167</v>
+        <v>541.624208062813</v>
       </c>
       <c r="N7" t="n">
-        <v>746.632943554378</v>
+        <v>746.632943554373</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917113</v>
+        <v>919.975396891705</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327088</v>
+        <v>1044.779129327081</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421862</v>
+        <v>917.0295025661707</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421862</v>
+        <v>817.6123249808618</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421862</v>
+        <v>817.6123249808618</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421862</v>
+        <v>817.6123249808618</v>
       </c>
       <c r="V7" t="n">
-        <v>848.22241584527</v>
+        <v>562.9278367749749</v>
       </c>
       <c r="W7" t="n">
-        <v>848.22241584527</v>
+        <v>273.5106667380143</v>
       </c>
       <c r="X7" t="n">
-        <v>848.22241584527</v>
+        <v>273.5106667380143</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.22241584527</v>
+        <v>52.71808759448422</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1154.636562079626</v>
+        <v>1051.039069230068</v>
       </c>
       <c r="C8" t="n">
-        <v>936.45788787174</v>
+        <v>682.0765522896561</v>
       </c>
       <c r="D8" t="n">
-        <v>578.1921892649896</v>
+        <v>682.0765522896561</v>
       </c>
       <c r="E8" t="n">
-        <v>192.4039366667454</v>
+        <v>296.2882996914119</v>
       </c>
       <c r="F8" t="n">
-        <v>185.4584359175419</v>
+        <v>289.3427989422084</v>
       </c>
       <c r="G8" t="n">
         <v>172.4110581943734</v>
@@ -4799,55 +4799,55 @@
         <v>172.4110581943734</v>
       </c>
       <c r="I8" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082205</v>
+        <v>241.3579866082206</v>
       </c>
       <c r="K8" t="n">
         <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>1033.218542125547</v>
+        <v>1197.638357874465</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.917954950955</v>
+        <v>1384.337770699873</v>
       </c>
       <c r="N8" t="n">
-        <v>1414.252167842937</v>
+        <v>2011.64543875972</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610014</v>
+        <v>2181.814464076679</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.728418949309</v>
+        <v>2390.72841894931</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.90437972421</v>
+        <v>2421.104517991922</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.90437972421</v>
+        <v>2167.412814737073</v>
       </c>
       <c r="V8" t="n">
-        <v>2304.841492380639</v>
+        <v>2167.412814737073</v>
       </c>
       <c r="W8" t="n">
-        <v>2304.841492380639</v>
+        <v>1814.644159466959</v>
       </c>
       <c r="X8" t="n">
-        <v>1931.375734119559</v>
+        <v>1441.178401205879</v>
       </c>
       <c r="Y8" t="n">
-        <v>1541.236402143747</v>
+        <v>1051.039069230068</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>336.9803201001412</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593631</v>
+        <v>199.5389224593632</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416771</v>
+        <v>98.62294460416774</v>
       </c>
       <c r="I9" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3773394513799</v>
+        <v>155.195993317173</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571897</v>
+        <v>484.6243976229828</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.167283623308</v>
+        <v>988.9859374891014</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.289170088821</v>
+        <v>1168.483273843706</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.945911741486</v>
+        <v>1820.869607825449</v>
       </c>
       <c r="O9" t="n">
         <v>1980.381920494209</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.5739510150303</v>
+        <v>179.403883765259</v>
       </c>
       <c r="C10" t="n">
-        <v>497.6377680871234</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5211286747876</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="E10" t="n">
-        <v>199.6080350923945</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="F10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4984,28 +4984,28 @@
         <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.652769053829</v>
+        <v>696.5456110855965</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.652769053829</v>
+        <v>407.3934346632763</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.652769053829</v>
+        <v>407.3934346632763</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.652769053829</v>
+        <v>407.3934346632763</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.652769053829</v>
+        <v>179.403883765259</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.22241584527</v>
+        <v>179.403883765259</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,34 +5027,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,16 +5072,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2417.418403724183</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2234.563569379087</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703794</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969311</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6455,31 +6455,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6488,22 +6488,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637304</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444888</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684175</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6926,25 +6926,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273905</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908938</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075811</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273906</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>398.4954786600653</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7439,10 +7439,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797189</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>81.64644236975207</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>229.04697755266</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8055,25 +8055,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546165</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>32.5469333494286</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>459.9808678792276</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>240.9393132390422</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>171.780784291846</v>
       </c>
       <c r="O5" t="n">
-        <v>44.78540908204715</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026546165</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>58.85246329941069</v>
       </c>
       <c r="N6" t="n">
-        <v>186.9417816116843</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,19 +8456,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>251.5805925818464</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>99.17134305364104</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>109.7462412654524</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>458.3127195243208</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>37.12601365260502</v>
       </c>
       <c r="S16" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>69.70496293143185</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>4.18682368252027</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194177</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>731153.2423263941</v>
+        <v>731153.2423263947</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>731153.2423263941</v>
+        <v>731153.2423263947</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>730805.06386243</v>
+        <v>730805.0638624302</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="M2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="N2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132551</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.933122243</v>
+        <v>789845.9331222384</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448472796</v>
+        <v>2553.741448476983</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329923</v>
+        <v>775624.2722329922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.14138214</v>
+        <v>172417.1413821404</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>128024.1174663869</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408955</v>
+        <v>184436.3405408963</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408955</v>
+        <v>184436.3405408963</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695031</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695037</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695072</v>
       </c>
       <c r="I4" t="n">
+        <v>6287.48053169506</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.480531695062</v>
+      </c>
+      <c r="K4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695103</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695051</v>
@@ -26451,10 +26451,10 @@
         <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695033</v>
+        <v>6287.480531694971</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531694995</v>
+        <v>6287.480531695013</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695031</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538445</v>
+        <v>86566.12012538436</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538445</v>
+        <v>86566.12012538436</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.1255591778</v>
+        <v>86631.12555917783</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301384.7566640605</v>
+        <v>-301384.7566640574</v>
       </c>
       <c r="C6" t="n">
-        <v>488461.1764581824</v>
+        <v>488461.1764581811</v>
       </c>
       <c r="D6" t="n">
-        <v>486346.1846508087</v>
+        <v>486346.1846508053</v>
       </c>
       <c r="E6" t="n">
-        <v>-136423.6778753389</v>
+        <v>-136458.4158007749</v>
       </c>
       <c r="F6" t="n">
-        <v>639200.5943576532</v>
+        <v>639165.8564322178</v>
       </c>
       <c r="G6" t="n">
-        <v>639200.5943576532</v>
+        <v>639165.8564322176</v>
       </c>
       <c r="H6" t="n">
-        <v>639200.5943576533</v>
+        <v>639165.8564322174</v>
       </c>
       <c r="I6" t="n">
-        <v>639200.5943576534</v>
+        <v>639165.8564322175</v>
       </c>
       <c r="J6" t="n">
-        <v>466783.4529755133</v>
+        <v>466748.7150500772</v>
       </c>
       <c r="K6" t="n">
-        <v>639200.5943576532</v>
+        <v>639165.8564322176</v>
       </c>
       <c r="L6" t="n">
-        <v>639200.5943576533</v>
+        <v>639165.8564322175</v>
       </c>
       <c r="M6" t="n">
-        <v>511176.4768912661</v>
+        <v>511141.7389658306</v>
       </c>
       <c r="N6" t="n">
-        <v>639200.5943576531</v>
+        <v>639165.8564322176</v>
       </c>
       <c r="O6" t="n">
-        <v>639200.5943576531</v>
+        <v>639165.8564322174</v>
       </c>
       <c r="P6" t="n">
-        <v>639200.5943576529</v>
+        <v>639165.8564322174</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.090792417868801e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053421</v>
+        <v>590.4941997053372</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053421</v>
+        <v>590.4941997053372</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053421</v>
+        <v>590.4941997053372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632722954</v>
+        <v>2.981900632727843</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26981,13 +26981,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685959</v>
+        <v>513.7321931685956</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310522</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685959</v>
+        <v>513.7321931685956</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685959</v>
+        <v>513.7321931685956</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>378.1084299135647</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716171</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>32.67587912041509</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>149.6796737144396</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524327</v>
+        <v>166.9261537524328</v>
       </c>
       <c r="H4" t="n">
-        <v>151.8177991691482</v>
+        <v>152.7599048465901</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.4282648842213</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063269</v>
+        <v>18.07600977063332</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371265</v>
+        <v>129.4149600371269</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937732</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207157</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>348.2203794139186</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716171</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386865</v>
+        <v>118.9581905386872</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011781</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723318</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>54.32319002954654</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524327</v>
+        <v>166.9261537524328</v>
       </c>
       <c r="H7" t="n">
-        <v>152.75990484659</v>
+        <v>152.7599048465901</v>
       </c>
       <c r="I7" t="n">
-        <v>123.428264884221</v>
+        <v>123.4282648842213</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063269</v>
+        <v>18.07600977063332</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371265</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937732</v>
+        <v>107.0365859843176</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207157</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>54.60366743300159</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>149.2760043052007</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>297.1544806055801</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27904,16 +27904,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.82788288956084</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.410886761382772e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-2.740183841666113e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-8.424525727746915e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966198</v>
+        <v>2.373846028966178</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415008</v>
+        <v>24.31115064414988</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171942</v>
+        <v>91.51769903171866</v>
       </c>
       <c r="J2" t="n">
-        <v>201.47721440097</v>
+        <v>201.4772144009683</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071092</v>
+        <v>301.9621168071067</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160835</v>
+        <v>374.6107072160805</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337112</v>
+        <v>416.8265915337077</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635114</v>
+        <v>423.5712815635079</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129788</v>
+        <v>399.9663501129754</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728757</v>
+        <v>341.3620262728729</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605236</v>
+        <v>256.3486653605215</v>
       </c>
       <c r="R2" t="n">
-        <v>149.116105617048</v>
+        <v>149.1161056170468</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506728</v>
+        <v>54.09401638506684</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179954</v>
+        <v>10.39151099179945</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172958</v>
+        <v>0.1899076823172942</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366208</v>
+        <v>1.270119599366197</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2666813938789</v>
+        <v>12.2666813938788</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817865</v>
+        <v>43.72999497817828</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401205</v>
+        <v>119.9984486401195</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976564</v>
+        <v>205.0964617976547</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623865</v>
+        <v>275.7775033623842</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394114</v>
+        <v>321.8193388394088</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351612</v>
+        <v>330.3369391351584</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492047</v>
+        <v>302.1937627492022</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789735</v>
+        <v>242.5371364789715</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.129652719097</v>
+        <v>162.1296527190956</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064931</v>
+        <v>78.85882916064865</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822757</v>
+        <v>23.59191448822737</v>
       </c>
       <c r="T3" t="n">
-        <v>5.11947329744537</v>
+        <v>5.119473297445327</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830317</v>
+        <v>0.08356049995830248</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026027</v>
+        <v>1.064825606026018</v>
       </c>
       <c r="H4" t="n">
-        <v>9.46726766084959</v>
+        <v>9.467267660849512</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303725</v>
+        <v>32.02221004303698</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034604008</v>
+        <v>75.28317034603946</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546602</v>
+        <v>123.7133749546591</v>
       </c>
       <c r="L4" t="n">
-        <v>158.310526917724</v>
+        <v>158.3105269177227</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609707</v>
+        <v>166.9162538609693</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203284</v>
+        <v>162.947358420327</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953879</v>
+        <v>150.5082592953866</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324568</v>
+        <v>128.7858169324558</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550666</v>
+        <v>89.16462415550592</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004297</v>
+        <v>47.87843134004257</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319902</v>
+        <v>18.55700624319887</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565749</v>
+        <v>4.549709407565711</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232879</v>
+        <v>0.05808139669232831</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966198</v>
+        <v>2.373846028966178</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415008</v>
+        <v>24.31115064414988</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171942</v>
+        <v>91.51769903171866</v>
       </c>
       <c r="J5" t="n">
-        <v>201.47721440097</v>
+        <v>201.4772144009683</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071092</v>
+        <v>301.9621168071067</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160835</v>
+        <v>374.6107072160805</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337112</v>
+        <v>416.8265915337077</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635114</v>
+        <v>423.5712815635079</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129788</v>
+        <v>399.9663501129754</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728757</v>
+        <v>341.3620262728729</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605236</v>
+        <v>256.3486653605215</v>
       </c>
       <c r="R5" t="n">
-        <v>149.116105617048</v>
+        <v>149.1161056170468</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506728</v>
+        <v>54.09401638506684</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179954</v>
+        <v>10.39151099179945</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172958</v>
+        <v>0.1899076823172942</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366208</v>
+        <v>1.270119599366197</v>
       </c>
       <c r="H6" t="n">
-        <v>12.2666813938789</v>
+        <v>12.2666813938788</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817865</v>
+        <v>43.72999497817828</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401205</v>
+        <v>119.9984486401195</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976564</v>
+        <v>205.0964617976547</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623865</v>
+        <v>275.7775033623842</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394114</v>
+        <v>321.8193388394088</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351612</v>
+        <v>330.3369391351584</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492047</v>
+        <v>302.1937627492022</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789735</v>
+        <v>242.5371364789715</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.129652719097</v>
+        <v>162.1296527190956</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064931</v>
+        <v>78.85882916064865</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822757</v>
+        <v>23.59191448822737</v>
       </c>
       <c r="T6" t="n">
-        <v>5.11947329744537</v>
+        <v>5.119473297445327</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830317</v>
+        <v>0.08356049995830248</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026027</v>
+        <v>1.064825606026018</v>
       </c>
       <c r="H7" t="n">
-        <v>9.46726766084959</v>
+        <v>9.467267660849512</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303725</v>
+        <v>32.02221004303698</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034604008</v>
+        <v>75.28317034603946</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546602</v>
+        <v>123.7133749546591</v>
       </c>
       <c r="L7" t="n">
-        <v>158.310526917724</v>
+        <v>158.3105269177227</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609707</v>
+        <v>166.9162538609693</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203284</v>
+        <v>162.947358420327</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953879</v>
+        <v>150.5082592953866</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324568</v>
+        <v>128.7858169324558</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550666</v>
+        <v>89.16462415550592</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004297</v>
+        <v>47.87843134004257</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319902</v>
+        <v>18.55700624319887</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565749</v>
+        <v>4.549709407565711</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232879</v>
+        <v>0.05808139669232831</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1007071927452</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33263,34 +33263,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33494,28 +33494,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,7 +33731,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33968,22 +33968,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>344.6306853939237</v>
       </c>
       <c r="L39" t="n">
-        <v>398.1179220955532</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34205,34 +34205,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>345.1232217852615</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,10 +34442,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428373</v>
+        <v>20.43130987428205</v>
       </c>
       <c r="K2" t="n">
-        <v>406.0176783332934</v>
+        <v>406.0176783332909</v>
       </c>
       <c r="L2" t="n">
-        <v>220.4907346158484</v>
+        <v>556.5055067965436</v>
       </c>
       <c r="M2" t="n">
-        <v>635.993891799271</v>
+        <v>186.480358306435</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789046</v>
+        <v>423.205195519577</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540374</v>
+        <v>550.668319954034</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176062</v>
+        <v>431.927738689086</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607414</v>
+        <v>34.04297548607204</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>119.2518573138617</v>
       </c>
       <c r="K3" t="n">
-        <v>331.720259835876</v>
+        <v>331.7202598358743</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859715</v>
+        <v>169.7700569319386</v>
       </c>
       <c r="M3" t="n">
-        <v>645.390368667393</v>
+        <v>645.3903686673904</v>
       </c>
       <c r="N3" t="n">
-        <v>198.9952270518279</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="O3" t="n">
-        <v>553.4598375814898</v>
+        <v>553.4598375814872</v>
       </c>
       <c r="P3" t="n">
-        <v>349.5020423036855</v>
+        <v>108.5627290646412</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307546</v>
+        <v>22.1478786330741</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287773</v>
+        <v>101.4438831287763</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780402</v>
+        <v>185.9005521780389</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228113</v>
+        <v>206.5001308228099</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995569</v>
+        <v>207.0795307995556</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094276</v>
+        <v>175.0933872094263</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973503</v>
+        <v>126.0643761973493</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812273</v>
+        <v>3.002580903811534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428373</v>
+        <v>189.5279250463558</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332934</v>
+        <v>81.87226576212618</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965468</v>
+        <v>556.5055067965436</v>
       </c>
       <c r="M5" t="n">
-        <v>635.993891799271</v>
+        <v>186.480358306435</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789046</v>
+        <v>365.939002258763</v>
       </c>
       <c r="O5" t="n">
-        <v>214.6535477733392</v>
+        <v>550.668319954034</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176062</v>
+        <v>431.927738689086</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607414</v>
+        <v>246.3579661459767</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.2518573138617</v>
       </c>
       <c r="K6" t="n">
-        <v>67.25502282329745</v>
+        <v>331.7202598358743</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859715</v>
+        <v>508.0634688859691</v>
       </c>
       <c r="M6" t="n">
-        <v>645.390368667393</v>
+        <v>238.5377682168011</v>
       </c>
       <c r="N6" t="n">
-        <v>385.9370086635121</v>
+        <v>198.9952270518251</v>
       </c>
       <c r="O6" t="n">
-        <v>553.4598375814898</v>
+        <v>553.4598375814872</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045804</v>
+        <v>427.0254977045784</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307546</v>
+        <v>232.2251663689232</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287773</v>
+        <v>101.4438831287763</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780402</v>
+        <v>185.9005521780389</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228113</v>
+        <v>206.5001308228099</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995569</v>
+        <v>207.0795307995556</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094276</v>
+        <v>175.0933872094263</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973503</v>
+        <v>126.0643761973493</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812273</v>
+        <v>3.002580903811534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,19 +35176,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>392.3166085831123</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>211.0241968410416</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>103.513036083524</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,13 +35258,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35407,7 +35407,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>318.5044627483008</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>206.7892464195648</v>
       </c>
       <c r="L39" t="n">
-        <v>259.5635423156791</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
